--- a/info/QRCode_staff_luxre.xlsx
+++ b/info/QRCode_staff_luxre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Keys\BeautySalon\luxer_new_3\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D684860-0BFA-4C8B-99E7-45DD310F87DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B4F27-6C65-41ED-949A-11C2AFE2FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,7 +1068,8 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>清藤 侑美</t>
+    <t>田熊 柊花</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2457,7 +2458,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2533,7 +2534,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="str">
